--- a/results/CoderGears/CppDepend/LICCA/C_Methods_Complexity (LICCA).xlsx
+++ b/results/CoderGears/CppDepend/LICCA/C_Methods_Complexity (LICCA).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\CoderGears\CppDepend\LICCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\CoderGears\CppDepend\LICCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>LICCA_C (analysis done 4 hours ago, Today 07:42 most recent)</t>
   </si>
@@ -157,9 +157,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>51 methods</t>
-  </si>
-  <si>
     <t>Cyclomatic Complexity (CC)</t>
   </si>
   <si>
@@ -371,13 +368,177 @@
   </si>
   <si>
     <t>2 818</t>
+  </si>
+  <si>
+    <r>
+      <t>n1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: No. of Unique Operators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: No. of Unique Operands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: No. of Total Operators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: No. of Total Operands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: N = N1+N2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vocabulary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: n = n1+n2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: V = N*log</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF273239"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>L = n1/n2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Difficulty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: D = (n1/2)*(N2/n2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>: E = D*V</t>
+    </r>
+  </si>
+  <si>
+    <t>HLEV (manual)</t>
+  </si>
+  <si>
+    <t>HDIFF (manual)</t>
+  </si>
+  <si>
+    <t>34 methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +708,54 @@
       <color rgb="FF000055"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000055"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF273239"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="40">
@@ -947,7 +1156,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -985,6 +1194,24 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1350,148 +1577,186 @@
     <col min="8" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="J8" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="J9" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="J10" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="J11" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="J12" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="J13" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="J14" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="J15" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="J16" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="J17" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.8">
+    <row r="20" spans="1:17" ht="16.2" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="N20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -1523,22 +1788,30 @@
       <c r="K21" s="7">
         <v>0</v>
       </c>
-      <c r="L21" s="7">
-        <v>0</v>
+      <c r="L21" s="18">
+        <f t="shared" ref="L21:L27" si="0">(F21/2)*(E21/D21)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="s">
+      <c r="N21" s="18">
+        <f t="shared" ref="N21:N27" si="1">F21/D21</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -1570,22 +1843,30 @@
       <c r="K22" s="9">
         <v>10</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M22" s="9">
         <v>0.1</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="9">
+        <v>109.01</v>
+      </c>
+      <c r="Q22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="9">
-        <v>109.01</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -1617,22 +1898,30 @@
       <c r="K23" s="9">
         <v>0</v>
       </c>
-      <c r="L23" s="9">
-        <v>0</v>
+      <c r="L23" s="18">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
       </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="18">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
@@ -1664,22 +1953,30 @@
       <c r="K24" s="7">
         <v>10</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="18">
+        <f t="shared" si="0"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M24" s="7">
         <v>0.1</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="N24" s="18">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7">
         <v>109.01</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -1711,22 +2008,30 @@
       <c r="K25" s="7">
         <v>0</v>
       </c>
-      <c r="L25" s="7">
-        <v>0</v>
+      <c r="L25" s="18">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25" s="18">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9">
         <v>2</v>
@@ -1758,22 +2063,30 @@
       <c r="K26" s="9">
         <v>10</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="18">
+        <f t="shared" si="0"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.1</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="9">
+      <c r="N26" s="18">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="9">
         <v>109.01</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="Q26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -1805,22 +2118,30 @@
       <c r="K27" s="9">
         <v>0</v>
       </c>
-      <c r="L27" s="9">
-        <v>0</v>
+      <c r="L27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M27" s="9">
         <v>0</v>
       </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="18">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -1852,22 +2173,30 @@
       <c r="K28" s="7">
         <v>10</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="18">
+        <f t="shared" ref="L28:L54" si="2">(F28/2)*(E28/D28)</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M28" s="7">
         <v>0.1</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="N28" s="18">
+        <f t="shared" ref="N28:N54" si="3">F28/D28</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="7">
         <v>109.01</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="Q28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -1899,22 +2228,30 @@
       <c r="K29" s="7">
         <v>0</v>
       </c>
-      <c r="L29" s="7">
-        <v>0</v>
+      <c r="L29" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="9">
         <v>2</v>
@@ -1946,22 +2283,30 @@
       <c r="K30" s="9">
         <v>10</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="18">
+        <f t="shared" si="2"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M30" s="9">
         <v>0.1</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="9">
+      <c r="N30" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="9">
         <v>109.01</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="Q30" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
@@ -1993,22 +2338,30 @@
       <c r="K31" s="9">
         <v>0</v>
       </c>
-      <c r="L31" s="9">
-        <v>0</v>
+      <c r="L31" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M31" s="9">
         <v>0</v>
       </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7">
         <v>2</v>
@@ -2040,22 +2393,30 @@
       <c r="K32" s="7">
         <v>10</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="18">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>0.1</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="N32" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7">
+        <v>105.65</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="7">
-        <v>105.65</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -2087,22 +2448,30 @@
       <c r="K33" s="7">
         <v>0</v>
       </c>
-      <c r="L33" s="7">
-        <v>0</v>
+      <c r="L33" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="N33" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9">
         <v>2</v>
@@ -2134,22 +2503,30 @@
       <c r="K34" s="9">
         <v>10</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="18">
+        <f t="shared" si="2"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="M34" s="9">
         <v>0.1</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="N34" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="9">
+        <v>128.83000000000001</v>
+      </c>
+      <c r="Q34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N34" s="9">
-        <v>128.83000000000001</v>
-      </c>
-      <c r="O34" s="8" t="s">
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="8" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -2181,22 +2558,30 @@
       <c r="K35" s="9">
         <v>0</v>
       </c>
-      <c r="L35" s="9">
-        <v>0</v>
+      <c r="L35" s="18">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
       </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7">
         <v>2</v>
@@ -2228,22 +2613,30 @@
       <c r="K36" s="7">
         <v>10</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="18">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+      <c r="M36" s="7">
         <v>0.1</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="N36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="7">
+        <v>113.96</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="7">
-        <v>113.96</v>
-      </c>
-      <c r="O36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
@@ -2275,22 +2668,30 @@
       <c r="K37" s="7">
         <v>0</v>
       </c>
-      <c r="L37" s="7">
-        <v>0</v>
+      <c r="L37" s="18">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="9">
         <v>2</v>
@@ -2322,22 +2723,30 @@
       <c r="K38" s="9">
         <v>8</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="18">
+        <f t="shared" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="M38" s="9">
         <v>0.12</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="N38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="9">
+        <v>81.99</v>
+      </c>
+      <c r="Q38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="9">
-        <v>81.99</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -2369,22 +2778,30 @@
       <c r="K39" s="9">
         <v>0</v>
       </c>
-      <c r="L39" s="9">
-        <v>0</v>
+      <c r="L39" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M39" s="9">
         <v>0</v>
       </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7">
         <v>3</v>
@@ -2416,22 +2833,30 @@
       <c r="K40" s="7">
         <v>12</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="18">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="M40" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="7">
+        <v>159.81</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="7">
-        <v>159.81</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="7">
         <v>1</v>
@@ -2463,22 +2888,30 @@
       <c r="K41" s="7">
         <v>0</v>
       </c>
-      <c r="L41" s="7">
-        <v>0</v>
+      <c r="L41" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="9">
         <v>2</v>
@@ -2510,22 +2943,30 @@
       <c r="K42" s="9">
         <v>4</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="18">
+        <f t="shared" si="2"/>
+        <v>8.625</v>
+      </c>
+      <c r="M42" s="9">
         <v>0.25</v>
       </c>
-      <c r="M42" s="9">
+      <c r="N42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="O42" s="9">
         <v>685.2</v>
       </c>
-      <c r="N42" s="9">
+      <c r="P42" s="9">
         <v>38.07</v>
       </c>
-      <c r="O42" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="Q42" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="9">
         <v>1</v>
@@ -2557,22 +2998,30 @@
       <c r="K43" s="9">
         <v>0</v>
       </c>
-      <c r="L43" s="9">
-        <v>0</v>
+      <c r="L43" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
       </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="7">
         <v>3</v>
@@ -2604,22 +3053,30 @@
       <c r="K44" s="7">
         <v>12</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="18">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="M44" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="N44" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" s="7">
+        <v>156.68</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N44" s="7">
-        <v>156.68</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="7">
         <v>1</v>
@@ -2651,22 +3108,30 @@
       <c r="K45" s="7">
         <v>0</v>
       </c>
-      <c r="L45" s="7">
-        <v>0</v>
+      <c r="L45" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="9">
         <v>2</v>
@@ -2698,22 +3163,30 @@
       <c r="K46" s="9">
         <v>10</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="18">
+        <f t="shared" si="2"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M46" s="9">
         <v>0.1</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N46" s="9">
+      <c r="N46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="9">
         <v>109.01</v>
       </c>
-      <c r="O46" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="Q46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
@@ -2745,22 +3218,30 @@
       <c r="K47" s="9">
         <v>0</v>
       </c>
-      <c r="L47" s="9">
-        <v>0</v>
+      <c r="L47" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
       </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="7">
         <v>2</v>
@@ -2792,22 +3273,30 @@
       <c r="K48" s="7">
         <v>10</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="18">
+        <f t="shared" si="2"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M48" s="7">
         <v>0.1</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" s="7">
+      <c r="N48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="7">
         <v>109.01</v>
       </c>
-      <c r="O48" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="7">
         <v>1</v>
@@ -2839,22 +3328,30 @@
       <c r="K49" s="7">
         <v>0</v>
       </c>
-      <c r="L49" s="7">
-        <v>0</v>
+      <c r="L49" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="9">
         <v>2</v>
@@ -2886,22 +3383,30 @@
       <c r="K50" s="9">
         <v>10</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="18">
+        <f t="shared" si="2"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M50" s="9">
         <v>0.1</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="N50" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="9">
         <v>109.01</v>
       </c>
-      <c r="O50" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="9">
         <v>1</v>
@@ -2933,22 +3438,30 @@
       <c r="K51" s="9">
         <v>0</v>
       </c>
-      <c r="L51" s="9">
-        <v>0</v>
+      <c r="L51" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
       </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="7">
         <v>2</v>
@@ -2980,22 +3493,30 @@
       <c r="K52" s="7">
         <v>10</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="18">
+        <f t="shared" si="2"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="M52" s="7">
         <v>0.1</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="Q52" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N52" s="7">
-        <v>99.1</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -3027,22 +3548,30 @@
       <c r="K53" s="7">
         <v>0</v>
       </c>
-      <c r="L53" s="7">
-        <v>0</v>
+      <c r="L53" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
       </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="N53" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="9">
         <v>2</v>
@@ -3074,69 +3603,83 @@
       <c r="K54" s="9">
         <v>8</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M54" s="9">
         <v>0.12</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="N54" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P54" s="9">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="Q54" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N54" s="9">
-        <v>74.180000000000007</v>
-      </c>
-      <c r="O54" s="8" t="s">
+    </row>
+    <row r="55" spans="1:17" ht="17.399999999999999" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="28.8">
-      <c r="A55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="B56" s="14">
         <v>53</v>
@@ -3168,20 +3711,28 @@
       <c r="K56" s="14">
         <v>164</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="22">
+        <f>SUM(L21:L54)</f>
+        <v>198.87500000000009</v>
+      </c>
+      <c r="M56" s="14">
         <v>1.8560000000000003</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="N56" s="22">
+        <f>SUM(N21:N54)</f>
+        <v>17.291666666666664</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="B57" s="15">
         <v>1.5588235294117647</v>
@@ -3213,20 +3764,28 @@
       <c r="K57" s="15">
         <v>4.8235294117647056</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="22">
+        <f>AVERAGE(L21:L54)</f>
+        <v>5.849264705882355</v>
+      </c>
+      <c r="M57" s="15">
         <v>5.458823529411766E-2</v>
       </c>
-      <c r="M57" s="12">
+      <c r="N57" s="22">
+        <f>AVERAGE(N21:N54)</f>
+        <v>0.50857843137254899</v>
+      </c>
+      <c r="O57" s="12">
         <v>646</v>
       </c>
-      <c r="N57" s="12">
+      <c r="P57" s="12">
         <v>35.89</v>
       </c>
-      <c r="O57" s="11"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -3258,20 +3817,28 @@
       <c r="K58" s="10">
         <v>0</v>
       </c>
-      <c r="L58" s="10">
-        <v>0</v>
+      <c r="L58" s="22">
+        <f>MIN(L21:L54)</f>
+        <v>0.5</v>
       </c>
       <c r="M58" s="10">
         <v>0</v>
       </c>
-      <c r="N58" s="10">
-        <v>0</v>
-      </c>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="N58" s="22">
+        <f>MIN(N21:N54)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="12">
         <v>3</v>
@@ -3303,20 +3870,28 @@
       <c r="K59" s="12">
         <v>12</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="22">
+        <f>MAX(L21:L54)</f>
+        <v>14.5</v>
+      </c>
+      <c r="M59" s="12">
         <v>0.25</v>
       </c>
-      <c r="M59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N59" s="12">
+      <c r="N59" s="22">
+        <f>MAX(N21:N54)</f>
+        <v>1</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="12">
         <v>159.81</v>
       </c>
-      <c r="O59" s="11"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="16">
         <v>0.60347895672597618</v>
@@ -3348,20 +3923,28 @@
       <c r="K60" s="16">
         <v>4.9732850324348821</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="22">
+        <f>_xlfn.STDEV.P(L21:L54)</f>
+        <v>5.3833156405824765</v>
+      </c>
+      <c r="M60" s="16">
         <v>6.0332957361169004E-2</v>
       </c>
-      <c r="M60" s="10">
+      <c r="N60" s="22">
+        <f>_xlfn.STDEV.P(N21:N54)</f>
+        <v>0.34415334502845046</v>
+      </c>
+      <c r="O60" s="10">
         <v>955.48</v>
       </c>
-      <c r="N60" s="10">
+      <c r="P60" s="10">
         <v>53.08</v>
       </c>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="15">
         <v>0.36418685121107264</v>
@@ -3393,18 +3976,26 @@
       <c r="K61" s="15">
         <v>24.73356401384083</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="22">
+        <f>_xlfn.VAR.P(L21:L54)</f>
+        <v>28.980087286139916</v>
+      </c>
+      <c r="M61" s="15">
         <v>3.6400657439446373E-3</v>
       </c>
-      <c r="M61" s="12" t="s">
+      <c r="N61" s="22">
+        <f>_xlfn.VAR.P(N21:N54)</f>
+        <v>0.11844152489427168</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N61" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="O61" s="11"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3413,13 +4004,27 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="J64" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
-    </row>
-    <row r="67" spans="2:14">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="J65" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="J66" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3428,13 +4033,17 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
+      <c r="J67" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
-    </row>
-    <row r="68" spans="2:14">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="2:16">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -3443,11 +4052,40 @@
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+      <c r="J68" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="J69" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="J70" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="J71" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="J72" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="J73" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
